--- a/dictionary/бандиты ельцина.xlsx
+++ b/dictionary/бандиты ельцина.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\replace_all\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552658A7-8DB9-4A3A-BC64-17C33CAF3586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74E2069-D42D-4DDC-BB95-E5810CF1BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Простые слова" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>а скупало их единственное предприятие</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>была довольно неприглядной</t>
+  </si>
+  <si>
+    <t>большой конкурентный потенциал</t>
+  </si>
+  <si>
+    <t>большие возможности в своём деле</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -453,6 +459,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
